--- a/Analysis/Imaging/RTcut/cut.xlsx
+++ b/Analysis/Imaging/RTcut/cut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vs02\vandc\Ach_active\Active\Magenta\2pDATA\20210418\RT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vs02\vandc\Ach_active\Active\Magenta\2pDATA\20210615\RT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F25CD6-5FE4-417B-A74C-9A26B9F8D587}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA18A5E0-0971-404D-BCB1-EEB31FC44418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26490" yWindow="7545" windowWidth="14655" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27705" yWindow="7590" windowWidth="14655" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,17 +346,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>35559</v>
+        <v>63581</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -366,23 +366,39 @@
       </c>
       <c r="D1">
         <f>C1+A1-1</f>
-        <v>35559</v>
+        <v>63581</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7629</v>
+        <v>17323</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
         <f>D1+1</f>
-        <v>35560</v>
+        <v>63582</v>
       </c>
       <c r="D2">
         <f>C2+A2-1</f>
-        <v>43188</v>
+        <v>80904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>15819</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <f>D2+1</f>
+        <v>80905</v>
+      </c>
+      <c r="D3">
+        <f>C3+A3-1</f>
+        <v>96723</v>
       </c>
     </row>
   </sheetData>
